--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahalakshmi GS\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94FD99C-BB1E-4F62-BF16-54CE4016D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819528CB-A02A-478A-B61A-AAC6E6219784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15120" xr2:uid="{368C0B99-0BEE-4FDE-A347-71DF375390AD}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15120" activeTab="7" xr2:uid="{368C0B99-0BEE-4FDE-A347-71DF375390AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Search product" sheetId="1" r:id="rId1"/>
+    <sheet name="Login " sheetId="2" r:id="rId2"/>
+    <sheet name="FB Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Invalid UN&amp;PWD" sheetId="4" r:id="rId4"/>
+    <sheet name="Gmail login" sheetId="5" r:id="rId5"/>
+    <sheet name="FB Logout" sheetId="7" r:id="rId6"/>
+    <sheet name="Payment" sheetId="8" r:id="rId7"/>
+    <sheet name="Amazon" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="124">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -89,27 +95,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>BU_001</t>
-  </si>
-  <si>
-    <t>Test the Login Functionality in Banking</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Review comments from Bill incorprate in version 2.1</t>
-  </si>
-  <si>
-    <t>1-Jan-2017</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -119,21 +104,12 @@
     <t>Access to Chrome Browser</t>
   </si>
   <si>
-    <t>Userid = mg12345</t>
-  </si>
-  <si>
-    <t>Pass = df12@434c</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
     <t>Verify on entering valid userid and password, the customer can login</t>
   </si>
   <si>
-    <t>Navigate to http://demo.guru99.com</t>
-  </si>
-  <si>
     <t>Site should open</t>
   </si>
   <si>
@@ -146,9 +122,6 @@
     <t>Credential can be entered</t>
   </si>
   <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
     <t>Cutomer is logged in</t>
   </si>
   <si>
@@ -207,6 +180,240 @@
   </si>
   <si>
     <t>Enter or Click Search button</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>Bank of America Login</t>
+  </si>
+  <si>
+    <t>Mahalakshmi</t>
+  </si>
+  <si>
+    <t>Tests the Functionality of search on Walmart</t>
+  </si>
+  <si>
+    <t>Navigate to www.bankofamerica.com</t>
+  </si>
+  <si>
+    <t>Click Log In</t>
+  </si>
+  <si>
+    <t>Facebook Login</t>
+  </si>
+  <si>
+    <t>Userid = maha@clarkstech.com</t>
+  </si>
+  <si>
+    <t>Password = 12345</t>
+  </si>
+  <si>
+    <t>Enter a valid username and valid password. Click login button</t>
+  </si>
+  <si>
+    <t>The application should display the home page</t>
+  </si>
+  <si>
+    <t>Logout. Enter a valid username and Invalid password. Click login button</t>
+  </si>
+  <si>
+    <t>Logout. Enter a invalid username and invalid password. Click login button</t>
+  </si>
+  <si>
+    <t>The application should display an error message and re-open the login page</t>
+  </si>
+  <si>
+    <t>Bank of America Invalid User name and Password</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>Google email Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter user name </t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Click "Login" button</t>
+  </si>
+  <si>
+    <t>Verify the login of Gmail</t>
+  </si>
+  <si>
+    <t>Successful login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter a valid username and Invalid password. Click login button</t>
+  </si>
+  <si>
+    <t>A message "The user name and password you entered don't match" is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter a invalid username and valid password. Click login button</t>
+  </si>
+  <si>
+    <t>Tests the Functionality of search on Facebook Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>click Login</t>
+  </si>
+  <si>
+    <t>User name or mobile number</t>
+  </si>
+  <si>
+    <t>Navigate to http://www.facebook .com</t>
+  </si>
+  <si>
+    <t>Enter user name or moblie number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter password </t>
+  </si>
+  <si>
+    <t>Click Login button</t>
+  </si>
+  <si>
+    <t>Successful Login</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>Click logout</t>
+  </si>
+  <si>
+    <t>Homepage should open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Sign in text </t>
+  </si>
+  <si>
+    <t>Sign in page should open with the email id textbox</t>
+  </si>
+  <si>
+    <t>Should able to enter the valid email id</t>
+  </si>
+  <si>
+    <t>Homepage should open with user account details</t>
+  </si>
+  <si>
+    <t>Place the cursor in "Accounts" text</t>
+  </si>
+  <si>
+    <t>Account panel with list of options should open</t>
+  </si>
+  <si>
+    <t>Sign out from the account and navigate to login page</t>
+  </si>
+  <si>
+    <t>Navigate to https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>Enter "email id"or "mobile number" in text box</t>
+  </si>
+  <si>
+    <t>Enter "password" and click Login</t>
+  </si>
+  <si>
+    <t>Move the cursor to "Logout" and click</t>
+  </si>
+  <si>
+    <t>App should open</t>
+  </si>
+  <si>
+    <t>Enter Username</t>
+  </si>
+  <si>
+    <t>credentials can be entered</t>
+  </si>
+  <si>
+    <t>The system should list the student who you want to make a payment</t>
+  </si>
+  <si>
+    <t>Add the default amount there or enter the other amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should take you to checkout </t>
+  </si>
+  <si>
+    <t>Enter card details and submit</t>
+  </si>
+  <si>
+    <t>payment should be done</t>
+  </si>
+  <si>
+    <t>Tc-007</t>
+  </si>
+  <si>
+    <t>Make payment in the school cash online</t>
+  </si>
+  <si>
+    <t>Review comments from Raja incorporate in version 1.0</t>
+  </si>
+  <si>
+    <t>Mahalaksmi</t>
+  </si>
+  <si>
+    <t>username: maha</t>
+  </si>
+  <si>
+    <t>password:12345</t>
+  </si>
+  <si>
+    <t>Test the online payment in the school cash online</t>
+  </si>
+  <si>
+    <t>Navigate to school cash online</t>
+  </si>
+  <si>
+    <t>Click  Sign in button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system welcome you with your username </t>
+  </si>
+  <si>
+    <t>Click Make a payment</t>
+  </si>
+  <si>
+    <t>Site should display the relevant results for mobiles</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>Test the Search Functionality in Amazon</t>
+  </si>
+  <si>
+    <t>Userid = maha</t>
+  </si>
+  <si>
+    <t>Password  12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the search button but entering the relevant data </t>
+  </si>
+  <si>
+    <t>Navigate to www.amazon.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Search button and type mobiles </t>
+  </si>
+  <si>
+    <t>Pass = 12345</t>
   </si>
 </sst>
 </file>
@@ -216,7 +423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +481,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +498,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -451,13 +668,248 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -477,21 +929,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -501,23 +944,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -525,76 +953,42 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -630,12 +1024,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -698,11 +1086,316 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1022,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D1E1D6-BE28-4BD5-9919-4588ADDA5D6B}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,54 +1727,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="65"/>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="22"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
@@ -1093,16 +1786,16 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1123,29 +1816,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="33">
+      <c r="E6" s="69"/>
+      <c r="F6" s="16">
         <v>44920</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="29"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -1161,95 +1854,95 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>3</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>4</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1265,11 +1958,11 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>30</v>
+      <c r="A14" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1282,158 +1975,158 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="79"/>
+      <c r="F16" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="23" t="s">
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
+      <c r="B18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>2</v>
       </c>
-      <c r="B19" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="B19" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>3</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="B20" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>4</v>
       </c>
-      <c r="B21" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="B21" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -1500,408 +2193,411 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="16">
+        <v>44920</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>1</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="B9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>2</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="63" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="38">
+        <v>2</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>3</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="66" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="38">
+        <v>4</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68" t="s">
+      <c r="B14" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>1</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>2</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>3</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>4</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="70"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="81"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
-        <v>1</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="58">
-        <v>1</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>2</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="58">
-        <v>2</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <v>3</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="58">
-        <v>3</v>
-      </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>4</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="58">
-        <v>4</v>
-      </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
-        <v>1</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>2</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
-        <v>3</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>4</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="67"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -1961,4 +2657,2758 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C7569F-9306-4C64-9889-D0C7067107D6}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="16">
+        <v>44920</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="28">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="28">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="28">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>2</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>3</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>4</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E884635B-99C9-4CBC-BCD1-D0F181B19D2C}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="16">
+        <v>44920</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="38">
+        <v>2</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="38">
+        <v>4</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>1</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>2</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>3</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CAE78E-E002-4CFF-953B-DAA9FF45347D}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="16">
+        <v>44920</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="38">
+        <v>2</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="38">
+        <v>4</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>1</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>2</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>3</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="84">
+        <v>4</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F404EC5-5D1E-4419-B126-1F187BAA64FB}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="16">
+        <v>44920</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="28">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="28">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="28">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>1</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="87"/>
+      <c r="F18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>2</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>3</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="87"/>
+      <c r="D20" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
+        <v>4</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
+        <v>5</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
+        <v>6</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="F23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C440F407-B7EB-40C4-B8C9-99C8BFC6F0FA}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="107"/>
+      <c r="H2" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="110"/>
+      <c r="J2" s="112">
+        <v>1</v>
+      </c>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="115"/>
+      <c r="F6" s="16">
+        <v>44920</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="115"/>
+      <c r="J6" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="118"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="124"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="99">
+        <v>1</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="99">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="99">
+        <v>2</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="99">
+        <v>2</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
+        <v>3</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="99">
+        <v>3</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="99">
+        <v>4</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="99">
+        <v>4</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="128"/>
+      <c r="D16" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="132"/>
+      <c r="F16" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="135"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="135"/>
+      <c r="K16" s="128"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="126"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="130"/>
+    </row>
+    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="99">
+        <v>1</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="105"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="99">
+        <v>2</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="105"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="99">
+        <v>3</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="105"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+    </row>
+    <row r="21" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="99">
+        <v>4</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="105"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+    </row>
+    <row r="22" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93">
+        <v>5</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="105"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+    </row>
+    <row r="23" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="99">
+        <v>6</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="105"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="137">
+        <v>7</v>
+      </c>
+      <c r="B24" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="139"/>
+      <c r="D24" s="138" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="139"/>
+      <c r="F24" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="140"/>
+      <c r="K24" s="140"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720D52DC-AA47-4F73-87CC-024EACF71092}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="107"/>
+      <c r="H2" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="110"/>
+      <c r="J2" s="112">
+        <v>1</v>
+      </c>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="151"/>
+      <c r="C4" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="115"/>
+      <c r="F6" s="16">
+        <v>44920</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="115"/>
+      <c r="J6" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="118"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="147">
+        <v>1</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="147">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="147">
+        <v>2</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="147">
+        <v>2</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="147">
+        <v>3</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="147">
+        <v>3</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="147">
+        <v>4</v>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="147">
+        <v>4</v>
+      </c>
+      <c r="G12" s="86"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="149"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="160"/>
+      <c r="D16" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="164"/>
+      <c r="F16" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="167"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="159" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="158"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+    </row>
+    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="147">
+        <v>1</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="105"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="99">
+        <v>2</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="105"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>